--- a/dados.xlsx
+++ b/dados.xlsx
@@ -14,34 +14,60 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="92D040"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -52,20 +78,210 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>Victor</t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="inlineStr">
-        <is>
-          <t>Ellen</t>
-        </is>
-      </c>
-      <c r="C1" s="0" t="inlineStr">
-        <is>
-          <t>Felipe</t>
+    <row r="1" spans="1:41">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Author 1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Author 1 Institution</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Author 2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Author 2 Institution</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Author 3</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Author 3 Institution</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Author 4</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Author 4 Institution</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Author 5</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Author 5 Institution</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Author 6</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Author 6 Institution</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Author 7</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Author 7 Institution</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Author 8</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Author 8 Institution</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Author 9</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Author 9 Institution</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Author 10</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Author 10 Institution</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Author 11</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Author 11 Institution</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Author 12</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Author 12 Institution</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Author 13</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Author 13 Institution</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Author 14</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Author 14 Institution</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Author 15</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Author 15 Institution</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Author 16</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Author 16 Institution</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Author 17</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Author 17 Institution</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Author 18</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Author 18 Institution</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Author 19</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Author 19 Institution</t>
         </is>
       </c>
     </row>
